--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -431,7 +431,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>

--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -428,7 +428,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -431,7 +431,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Not Seen</t>
+          <t>Seen</t>
         </is>
       </c>
     </row>
